--- a/biology/Médecine/Chantal_Birman/Chantal_Birman.xlsx
+++ b/biology/Médecine/Chantal_Birman/Chantal_Birman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chantal Birman est une sage-femme française.
-Elle est la première sage-femme décorée du grade de Chevalier de la Légion d'honneur puis de celui d'Officier de la Légion d'honneur[1].
+Elle est la première sage-femme décorée du grade de Chevalier de la Légion d'honneur puis de celui d'Officier de la Légion d'honneur.
 </t>
         </is>
       </c>
@@ -514,13 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation
-Chantal Birman decide de devenir sage-femme en 1967 en passant devant l'Abbaye de Port-Royal alors qu'elle quitte la faculté de médecine après y être restée une heure[2]. Elle rentre dans un service où se pratiquent des avortements illégaux[2].
-Carrière de sage-femme
-Chantal Birman est sage-femme pendant cinquante ans à la maternité des Lilas qu'elle rejoint à 21 ans[2],[3]. Elle exerce aussi en tant que sage-femme libérale[3] et visite en particulier les familles immigrées[2].
-Elle rejoint le Mouvement pour la liberté de l’avortement et de la contraception en 1974[2]. Elle est féministe[4],[5].
-Durant les grèves des sages-femmes en 2021, elle explique que ce métier est « le curseur de la situation des femmes dans la société »[5].
-En 2022, elle s’exprime contre la fermeture de la maternité des Lilas qui est un « conservatoire d'humanité » selon elle[6].
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chantal Birman decide de devenir sage-femme en 1967 en passant devant l'Abbaye de Port-Royal alors qu'elle quitte la faculté de médecine après y être restée une heure. Elle rentre dans un service où se pratiquent des avortements illégaux.
 </t>
         </is>
       </c>
@@ -546,13 +558,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière de sage-femme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chantal Birman est sage-femme pendant cinquante ans à la maternité des Lilas qu'elle rejoint à 21 ans,. Elle exerce aussi en tant que sage-femme libérale et visite en particulier les familles immigrées.
+Elle rejoint le Mouvement pour la liberté de l’avortement et de la contraception en 1974. Elle est féministe,.
+Durant les grèves des sages-femmes en 2021, elle explique que ce métier est « le curseur de la situation des femmes dans la société ».
+En 2022, elle s’exprime contre la fermeture de la maternité des Lilas qui est un « conservatoire d'humanité » selon elle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chantal_Birman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Birman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chantal Birman est décorée chevalière de la légion d'honneur en 2000[7] puis officière en 2013[8].
-En 2021, Aude Pépin lui consacre un film, À la vie en hommage à sa carrière[9],[4],[10],[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chantal Birman est décorée chevalière de la légion d'honneur en 2000 puis officière en 2013.
+En 2021, Aude Pépin lui consacre un film, À la vie en hommage à sa carrière.
 </t>
         </is>
       </c>
